--- a/biology/Médecine/Adénosine_désaminase_2/Adénosine_désaminase_2.xlsx
+++ b/biology/Médecine/Adénosine_désaminase_2/Adénosine_désaminase_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_d%C3%A9saminase_2</t>
+          <t>Adénosine_désaminase_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adénosine désaminase 2, ou ADA2, est une enzyme du métabolisme des purines. Son gène est le CECR1 (« Cat eye syndrome critical region protein 1 ») situé sur le chromosome 22 humain
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_d%C3%A9saminase_2</t>
+          <t>Adénosine_désaminase_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de l'une des adénosine désaminases permettant la transformation d'adénosine en inosine et de la 2′-deoxyadenosine en 2′-deoxyinosine.
-Elle participe à la différenciation des monocytes en macrophages et stimule la multiplication des lymphocytes T helper[3].
+Elle participe à la différenciation des monocytes en macrophages et stimule la multiplication des lymphocytes T helper.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_d%C3%A9saminase_2</t>
+          <t>Adénosine_désaminase_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son déficit entraîne une maladie comportant des accidents vasculaires cérébraux précoces[4] ainsi qu'une vascularite de type périartérite noueuse[5].
-Une expression trop importante du gène donne, au contraire, le syndrome des yeux de chat[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son déficit entraîne une maladie comportant des accidents vasculaires cérébraux précoces ainsi qu'une vascularite de type périartérite noueuse.
+Une expression trop importante du gène donne, au contraire, le syndrome des yeux de chat.
 </t>
         </is>
       </c>
